--- a/6회사보충/TC1_TTA/조기경보 계산식.xlsx
+++ b/6회사보충/TC1_TTA/조기경보 계산식.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jhpark\가온\프로젝트\4.Forecast\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jhpark\개인\git_day\6회사보충\TC1_TTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7E25BB-62CF-4777-9410-229F0A40979A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8D33BB-5E2B-4C24-B79F-01D74289A362}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13320" xr2:uid="{2A1ECEDC-FF1D-4858-A6E9-4B43B9EAB1C8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="index계산식" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>value</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -89,10 +92,6 @@
   </si>
   <si>
     <t>이상데이터</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>threshold*(1-index)/0.3</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -240,15 +239,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -262,6 +252,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -299,6 +313,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>index</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>점수</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -330,17 +374,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.6580927384076991E-2"/>
-          <c:y val="0.1708599033816425"/>
-          <c:w val="0.90286351706036749"/>
-          <c:h val="0.73175548708585336"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -361,84 +395,60 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$26</c:f>
+              <c:f>index계산식!$G$9:$G$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>10.039999999999999</c:v>
+                  <c:v>0.90399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.050000000000001</c:v>
+                  <c:v>0.84749999999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.1</c:v>
+                  <c:v>0.80085416666666753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.119999999999999</c:v>
+                  <c:v>0.74929583333333494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.5</c:v>
+                  <c:v>0.69207500000000233</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.8</c:v>
+                  <c:v>0.63819166666666982</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>0.58564583333333731</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.54</c:v>
+                  <c:v>0.53218750000000481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>0.51046675000000485</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.9158333333333</c:v>
+                  <c:v>0.51440850000000482</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.162333333333301</c:v>
+                  <c:v>0.51440858333333739</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.4088333333333</c:v>
+                  <c:v>0.52996691666666995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.655333333333299</c:v>
+                  <c:v>0.56006700000000242</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.9018333333333</c:v>
+                  <c:v>0.62531133333333488</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.1483333333333</c:v>
+                  <c:v>0.69647366666666743</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.40883</c:v>
+                  <c:v>0.76984574999999988</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.142329999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.91583</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11.54</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11.204829999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10.04556</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10.055339999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10.21345</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>10.564830000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10.564830000000001</c:v>
+                  <c:v>0.84971885714285711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -446,7 +456,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7692-45FC-81AF-616469E4B33D}"/>
+              <c16:uniqueId val="{00000000-3577-47C1-8B19-743B1EA1A131}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -459,11 +469,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="557761728"/>
-        <c:axId val="2096557488"/>
+        <c:axId val="1387593071"/>
+        <c:axId val="1393560575"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="557761728"/>
+        <c:axId val="1387593071"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -505,7 +515,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096557488"/>
+        <c:crossAx val="1393560575"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -513,10 +523,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2096557488"/>
+        <c:axId val="1393560575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -534,7 +543,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -565,330 +574,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557761728"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>value</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$30:$A$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>10.039999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.119999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.04556</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.055339999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.21345</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.564830000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.119999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.564830000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A388-478D-B7E7-61A3B9CE1966}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="630664784"/>
-        <c:axId val="2018447040"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="630664784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2018447040"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2018447040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="6"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="630664784"/>
+        <c:crossAx val="1387593071"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -984,46 +670,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1540,543 +1186,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3600450</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1">
+        <xdr:cNvPr id="6" name="차트 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1361D91A-A5A8-4C53-A2FB-EDEA7A24648D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B7F588B-340A-4193-B053-CE3E481B66F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,43 +1224,26 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2734702-0A5F-4AD2-900E-919482929C67}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="test2_VAE_GROUP1_CWP_PRESS_resu"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="I3">
+            <v>9.8388021982364571E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2430,17 +1543,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDDC498-D975-4CF1-BF34-96255BD1EB5E}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="15" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="47.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
@@ -2450,7 +1563,7 @@
     <col min="14" max="14" width="24.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2469,14 +1582,14 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>0.34722222222222227</v>
       </c>
@@ -2497,14 +1610,18 @@
         <f t="shared" ref="F2:F25" si="0">1-(E2/D2)*0.3</f>
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <f>[1]test2_VAE_GROUP1_CWP_PRESS_resu!$I$3</f>
+        <v>9.8388021982364571E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0.35069444444444442</v>
       </c>
@@ -2525,9 +1642,9 @@
         <f t="shared" si="0"/>
         <v>0.99799999999999967</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>0.35416666666666702</v>
       </c>
@@ -2548,12 +1665,12 @@
         <f t="shared" si="0"/>
         <v>0.98799999999999988</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="11"/>
       <c r="I4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>0.35763888888888901</v>
       </c>
@@ -2574,12 +1691,12 @@
         <f t="shared" si="0"/>
         <v>0.98399999999999999</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="11"/>
       <c r="I5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>0.36111111111111099</v>
       </c>
@@ -2600,9 +1717,9 @@
         <f t="shared" si="0"/>
         <v>0.90799999999999981</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>0.36458333333333298</v>
       </c>
@@ -2623,14 +1740,14 @@
         <f t="shared" si="0"/>
         <v>0.84799999999999964</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>0.36805555555555503</v>
       </c>
       <c r="B8" s="2">
-        <v>11</v>
+        <v>11.01</v>
       </c>
       <c r="C8" s="2">
         <v>10.039999999999999</v>
@@ -2640,15 +1757,15 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
-        <v>0.96000000000000085</v>
+        <v>0.97000000000000064</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.80799999999999983</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.80599999999999983</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>0.37152777777777701</v>
       </c>
@@ -2669,20 +1786,20 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="10">
         <f>AVERAGE(F2:F9)</f>
-        <v>0.90424999999999989</v>
-      </c>
-      <c r="H9" s="7" t="s">
+        <v>0.90399999999999991</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>0.374999999999999</v>
       </c>
       <c r="B10" s="2">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="C10" s="2">
         <v>10.039999999999999</v>
@@ -2692,21 +1809,21 @@
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>1.9600000000000009</v>
+        <v>2.2600000000000016</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.60799999999999987</v>
-      </c>
-      <c r="G10" s="2">
+        <v>0.54799999999999971</v>
+      </c>
+      <c r="G10" s="10">
         <f t="shared" ref="G10:G24" si="2">AVERAGE(F3:F10)</f>
-        <v>0.85524999999999984</v>
-      </c>
-      <c r="H10" s="10" t="s">
+        <v>0.84749999999999992</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>0.37847222222222199</v>
       </c>
@@ -2727,12 +1844,12 @@
         <f t="shared" si="0"/>
         <v>0.6248333333333399</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="10">
         <f t="shared" si="2"/>
-        <v>0.80860416666666746</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.80085416666666753</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>0.38194444444444398</v>
       </c>
@@ -2753,12 +1870,12 @@
         <f t="shared" si="0"/>
         <v>0.57553333333333967</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="10">
         <f t="shared" si="2"/>
-        <v>0.75704583333333486</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.74929583333333494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>0.38541666666666602</v>
       </c>
@@ -2779,15 +1896,15 @@
         <f t="shared" si="0"/>
         <v>0.52623333333333988</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="12">
         <f t="shared" si="2"/>
-        <v>0.69982500000000236</v>
-      </c>
-      <c r="H13" s="8" t="s">
+        <v>0.69207500000000233</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>0.38888888888888801</v>
       </c>
@@ -2808,12 +1925,12 @@
         <f t="shared" si="0"/>
         <v>0.47693333333333998</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="10">
         <f t="shared" si="2"/>
-        <v>0.64594166666666986</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.63819166666666982</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>0.39236111111110999</v>
       </c>
@@ -2834,12 +1951,12 @@
         <f t="shared" si="0"/>
         <v>0.42763333333333975</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="10">
         <f t="shared" si="2"/>
-        <v>0.59339583333333734</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.58564583333333731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>0.39583333333333198</v>
       </c>
@@ -2860,12 +1977,12 @@
         <f t="shared" si="0"/>
         <v>0.37833333333333996</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="10">
         <f t="shared" si="2"/>
-        <v>0.53968750000000487</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.53218750000000481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>0.39930555555555503</v>
       </c>
@@ -2886,12 +2003,12 @@
         <f t="shared" si="0"/>
         <v>0.52623399999999987</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="10">
         <f t="shared" si="2"/>
-        <v>0.51796675000000492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.51046675000000485</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>0.40277777777777701</v>
       </c>
@@ -2912,12 +2029,12 @@
         <f t="shared" si="0"/>
         <v>0.57953399999999999</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="10">
         <f t="shared" si="2"/>
         <v>0.51440850000000482</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>0.406249999999999</v>
       </c>
@@ -2938,12 +2055,12 @@
         <f t="shared" si="0"/>
         <v>0.62483399999999989</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="10">
         <f t="shared" si="2"/>
         <v>0.51440858333333739</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>0.40972222222222099</v>
       </c>
@@ -2964,12 +2081,12 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="10">
         <f t="shared" si="2"/>
         <v>0.52996691666666995</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>0.41319444444444298</v>
       </c>
@@ -2990,12 +2107,12 @@
         <f t="shared" si="0"/>
         <v>0.76703399999999999</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="10">
         <f t="shared" si="2"/>
         <v>0.56006700000000242</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>0.41666666666666502</v>
       </c>
@@ -3016,12 +2133,12 @@
         <f t="shared" si="0"/>
         <v>0.99888799999999978</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="10">
         <f t="shared" si="2"/>
         <v>0.62531133333333488</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>0.42013888888888701</v>
       </c>
@@ -3042,12 +2159,12 @@
         <f t="shared" si="0"/>
         <v>0.99693199999999993</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="10">
         <f t="shared" si="2"/>
         <v>0.69647366666666743</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>0.423611111111109</v>
       </c>
@@ -3068,15 +2185,15 @@
         <f t="shared" si="0"/>
         <v>0.96530999999999989</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="13">
         <f t="shared" si="2"/>
         <v>0.76984574999999988</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>0.42708333333333331</v>
       </c>
@@ -3097,12 +2214,12 @@
         <f t="shared" si="0"/>
         <v>0.89503399999999966</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="10">
         <f>AVERAGE(F19:F25)</f>
         <v>0.84971885714285711</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>0.43055555555555802</v>
       </c>
@@ -3110,227 +2227,306 @@
         <v>10.564830000000001</v>
       </c>
       <c r="C26" s="2">
-        <f>B2/2</f>
-        <v>5.0199999999999996</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="D26" s="2">
         <v>1.5</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" ref="E26" si="3">ABS(B26-C26)</f>
-        <v>5.544830000000001</v>
+        <v>0.52483000000000146</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" ref="F26" si="4">1-(E26/D26)*0.3</f>
-        <v>-0.10896600000000012</v>
-      </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="C30" s="2">
-        <f>1-(H38/B30)*0.3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>10.050000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>10.119999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>10.04556</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>10.055339999999999</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>10.21345</v>
-      </c>
-      <c r="G38" s="2">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="H38" s="2">
-        <f>ABS(A30-G38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>10.564830000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>10.119999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>10.564830000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <f ca="1">RANDBETWEEN($A$41-1.5*1/0.3,$A$41+1.5*1/0.3)</f>
-        <v>8</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="D42" s="2">
-        <f>B30 * (1 - E42) / 0.3</f>
-        <v>5</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <f t="shared" ref="A42:A53" ca="1" si="5">RANDBETWEEN($A$30-1.5*1/0.3,$A$30+1.5*1/0.3)</f>
-        <v>12</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
+        <v>0.89503399999999966</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
